--- a/FSARankings2021.xlsx
+++ b/FSARankings2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C05214-040C-4F0D-BD9D-CF23C95B86C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03313711-6D9C-4453-B600-CCEFBC0E08EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,6 +1422,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -1484,15 +1493,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1688,19 +1688,19 @@
     <tableColumn id="9" xr3:uid="{00BEEB21-F787-4523-B245-1C91A1B25514}" uniqueName="Named" name="Special" dataDxfId="8">
       <xmlColumnPr mapId="6" xpath="/results/result/Named" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A211CEEC-F09E-496B-99ED-D7D496545BB4}" uniqueName="12" name="No.S" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{A211CEEC-F09E-496B-99ED-D7D496545BB4}" uniqueName="12" name="No.S" dataDxfId="7">
       <calculatedColumnFormula>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C8020774-91F5-437F-B5E9-C1FC7465CC03}" uniqueName="13" name="NI.Mult" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{C8020774-91F5-437F-B5E9-C1FC7465CC03}" uniqueName="13" name="NI.Mult" dataDxfId="6">
       <calculatedColumnFormula>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{160BEDD1-4394-459B-8F44-CFC2219C7BF1}" uniqueName="0" name="Ranking.Points" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{160BEDD1-4394-459B-8F44-CFC2219C7BF1}" uniqueName="0" name="Ranking.Points" dataDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L2=0,VLOOKUP(C2,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C2,'Ranking Values'!A:C,3,FALSE))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{AD3110F0-7D96-478B-8F80-F8A52AA37959}" uniqueName="0" name="Mulitplier" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{AD3110F0-7D96-478B-8F80-F8A52AA37959}" uniqueName="0" name="Mulitplier" dataDxfId="4">
       <calculatedColumnFormula>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0DC43692-72DA-4E68-802C-A8AB35C41C0C}" uniqueName="Points" name="Points" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{0DC43692-72DA-4E68-802C-A8AB35C41C0C}" uniqueName="Points" name="Points" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</calculatedColumnFormula>
       <xmlColumnPr mapId="6" xpath="/results/result/Points" xmlDataType="string"/>
     </tableColumn>
@@ -1720,11 +1720,11 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{32B20E36-9F3E-43E1-A2FD-352266F3A662}" name="LastName"/>
     <tableColumn id="2" xr3:uid="{EF459D54-B7A1-41A6-B6AD-B2FB16B4B70F}" name="FirstName"/>
-    <tableColumn id="13" xr3:uid="{A52968D0-9E7C-460C-BB8B-3F61E59B89D3}" name="LN.FN" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{A52968D0-9E7C-460C-BB8B-3F61E59B89D3}" name="LN.FN" dataDxfId="2">
       <calculatedColumnFormula>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A4B77A9-EF18-4E63-94B4-819D3FC561A1}" name="DOB" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{F8171842-7042-411D-9002-AF162CB1B980}" name="CalculatedAge" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{6A4B77A9-EF18-4E63-94B4-819D3FC561A1}" name="DOB" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{F8171842-7042-411D-9002-AF162CB1B980}" name="CalculatedAge" dataDxfId="0">
       <calculatedColumnFormula>ROUNDDOWN((K2-Table13[[#This Row],[DOB]])/365,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{E0DF7C42-1D72-4EF4-9C93-BFD8F6A52BCC}" name="Club"/>
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:Q525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M524" sqref="M524"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L480" sqref="L480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31335,7 +31335,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L482" s="27"/>
+      <c r="L482" s="27">
+        <v>0</v>
+      </c>
       <c r="M482" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31392,7 +31394,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L483" s="27"/>
+      <c r="L483" s="27">
+        <v>0</v>
+      </c>
       <c r="M483" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31449,7 +31453,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L484" s="27"/>
+      <c r="L484" s="27">
+        <v>0</v>
+      </c>
       <c r="M484" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31506,7 +31512,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L485" s="27"/>
+      <c r="L485" s="27">
+        <v>0</v>
+      </c>
       <c r="M485" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31563,7 +31571,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L486" s="27"/>
+      <c r="L486" s="27">
+        <v>0</v>
+      </c>
       <c r="M486" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -31621,7 +31631,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L487" s="27"/>
+      <c r="L487" s="27">
+        <v>0</v>
+      </c>
       <c r="M487" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31679,7 +31691,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L488" s="27"/>
+      <c r="L488" s="27">
+        <v>0</v>
+      </c>
       <c r="M488" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31737,7 +31751,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L489" s="27"/>
+      <c r="L489" s="27">
+        <v>0</v>
+      </c>
       <c r="M489" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31795,7 +31811,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L490" s="27"/>
+      <c r="L490" s="27">
+        <v>0</v>
+      </c>
       <c r="M490" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31853,7 +31871,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L491" s="27"/>
+      <c r="L491" s="27">
+        <v>0</v>
+      </c>
       <c r="M491" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -31911,7 +31931,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L492" s="27"/>
+      <c r="L492" s="27">
+        <v>0</v>
+      </c>
       <c r="M492" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -31969,7 +31991,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L493" s="27"/>
+      <c r="L493" s="27">
+        <v>0</v>
+      </c>
       <c r="M493" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32027,7 +32051,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L494" s="27"/>
+      <c r="L494" s="27">
+        <v>0</v>
+      </c>
       <c r="M494" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32085,7 +32111,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L495" s="27"/>
+      <c r="L495" s="27">
+        <v>0</v>
+      </c>
       <c r="M495" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32143,7 +32171,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L496" s="27"/>
+      <c r="L496" s="27">
+        <v>0</v>
+      </c>
       <c r="M496" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32201,7 +32231,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L497" s="27"/>
+      <c r="L497" s="27">
+        <v>0</v>
+      </c>
       <c r="M497" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32259,7 +32291,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L498" s="27"/>
+      <c r="L498" s="27">
+        <v>0</v>
+      </c>
       <c r="M498" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32317,7 +32351,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L499" s="27"/>
+      <c r="L499" s="27">
+        <v>0</v>
+      </c>
       <c r="M499" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32375,7 +32411,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L500" s="27"/>
+      <c r="L500" s="27">
+        <v>0</v>
+      </c>
       <c r="M500" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -32433,7 +32471,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L501" s="27"/>
+      <c r="L501" s="27">
+        <v>0</v>
+      </c>
       <c r="M501" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32491,7 +32531,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L502" s="27"/>
+      <c r="L502" s="27">
+        <v>0</v>
+      </c>
       <c r="M502" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -32548,7 +32590,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L503" s="27"/>
+      <c r="L503" s="27">
+        <v>0</v>
+      </c>
       <c r="M503" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -32605,7 +32649,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L504" s="27"/>
+      <c r="L504" s="27">
+        <v>0</v>
+      </c>
       <c r="M504" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32662,7 +32708,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L505" s="27"/>
+      <c r="L505" s="27">
+        <v>0</v>
+      </c>
       <c r="M505" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32719,7 +32767,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L506" s="27"/>
+      <c r="L506" s="27">
+        <v>0</v>
+      </c>
       <c r="M506" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32777,7 +32827,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L507" s="27"/>
+      <c r="L507" s="27">
+        <v>0</v>
+      </c>
       <c r="M507" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32835,7 +32887,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L508" s="27"/>
+      <c r="L508" s="27">
+        <v>0</v>
+      </c>
       <c r="M508" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32893,7 +32947,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L509" s="27"/>
+      <c r="L509" s="27">
+        <v>0</v>
+      </c>
       <c r="M509" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -32951,7 +33007,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L510" s="27"/>
+      <c r="L510" s="27">
+        <v>0</v>
+      </c>
       <c r="M510" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -33009,7 +33067,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L511" s="27"/>
+      <c r="L511" s="27">
+        <v>0</v>
+      </c>
       <c r="M511" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33067,7 +33127,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L512" s="27"/>
+      <c r="L512" s="27">
+        <v>0</v>
+      </c>
       <c r="M512" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -33125,7 +33187,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L513" s="27"/>
+      <c r="L513" s="27">
+        <v>0</v>
+      </c>
       <c r="M513" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33183,7 +33247,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>CSFC</v>
       </c>
-      <c r="L514" s="27"/>
+      <c r="L514" s="27">
+        <v>0</v>
+      </c>
       <c r="M514" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33241,7 +33307,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L515" s="27"/>
+      <c r="L515" s="27">
+        <v>0</v>
+      </c>
       <c r="M515" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>3</v>
@@ -33299,7 +33367,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L516" s="27"/>
+      <c r="L516" s="27">
+        <v>0</v>
+      </c>
       <c r="M516" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>
@@ -33357,7 +33427,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L517" s="27"/>
+      <c r="L517" s="27">
+        <v>0</v>
+      </c>
       <c r="M517" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>2</v>
@@ -33415,7 +33487,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>AHFC</v>
       </c>
-      <c r="L518" s="27"/>
+      <c r="L518" s="27">
+        <v>0</v>
+      </c>
       <c r="M518" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>1</v>
@@ -33473,7 +33547,9 @@
         <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
         <v>ASC</v>
       </c>
-      <c r="L519" s="27"/>
+      <c r="L519" s="27">
+        <v>0</v>
+      </c>
       <c r="M519" s="22">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>4</v>

--- a/FSARankings2021.xlsx
+++ b/FSARankings2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03313711-6D9C-4453-B600-CCEFBC0E08EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23B8D85-49D3-4FF0-B968-D8C65805B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="405" windowWidth="14370" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="416">
   <si>
     <t>Ranking</t>
   </si>
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1407,6 +1407,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Bold text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1710,12 +1711,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H211" totalsRowShown="0">
-  <autoFilter ref="A1:H211" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H204">
-    <sortCondition ref="A2:A204"/>
-    <sortCondition ref="B2:B204"/>
-    <sortCondition ref="D2:D204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91A705DB-3A2B-43DE-B85A-B41CBEA2BAC2}" name="Table13" displayName="Table13" ref="A1:H212" totalsRowShown="0">
+  <autoFilter ref="A1:H212" xr:uid="{E008F319-DAB4-49F1-8B03-B35F0DBC375D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
+    <sortCondition ref="A2:A205"/>
+    <sortCondition ref="B2:B205"/>
+    <sortCondition ref="D2:D205"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{32B20E36-9F3E-43E1-A2FD-352266F3A662}" name="LastName"/>
@@ -2073,9 +2074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L480" sqref="L480"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A514" sqref="A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33653,10 +33654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34932,31 +34933,31 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="9" t="str">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Bugeja.Hannah</v>
+        <v>Burgun.Alexandre</v>
       </c>
       <c r="D36" s="1">
-        <v>38756</v>
+        <v>31399</v>
       </c>
       <c r="E36" s="2">
-        <f>ROUNDDOWN((K36-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
         <v>198</v>
       </c>
       <c r="H36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
@@ -34964,26 +34965,26 @@
       </c>
       <c r="L36" s="2">
         <f>ROUNDDOWN((K36-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C37" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Burgun.Alexandre</v>
+        <v>Bury.Connor</v>
       </c>
       <c r="D37" s="1">
-        <v>31399</v>
+        <v>36161</v>
       </c>
       <c r="E37" s="2">
-        <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>35</v>
+        <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -35000,29 +35001,29 @@
       </c>
       <c r="L37" s="2">
         <f>ROUNDDOWN((K37-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="C38" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Bury.Connor</v>
+        <v>CAMERLENGO.AARON</v>
       </c>
       <c r="D38" s="1">
-        <v>36161</v>
+        <v>39521</v>
       </c>
       <c r="E38" s="2">
-        <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G38" t="s">
         <v>198</v>
@@ -35036,29 +35037,29 @@
       </c>
       <c r="L38" s="2">
         <f>ROUNDDOWN((K38-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C39" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>CAMERLENGO.AARON</v>
+        <v>Campbell.William</v>
       </c>
       <c r="D39" s="1">
-        <v>39521</v>
+        <v>35355</v>
       </c>
       <c r="E39" s="2">
-        <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
         <v>198</v>
@@ -35072,29 +35073,29 @@
       </c>
       <c r="L39" s="2">
         <f>ROUNDDOWN((K39-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C40" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Campbell.William</v>
+        <v>Casey.Max</v>
       </c>
       <c r="D40" s="1">
-        <v>35355</v>
+        <v>39892</v>
       </c>
       <c r="E40" s="2">
-        <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G40" t="s">
         <v>198</v>
@@ -35108,35 +35109,35 @@
       </c>
       <c r="L40" s="2">
         <f>ROUNDDOWN((K40-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C41" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Casey.Max</v>
+        <v>Cassidy.Jennifer</v>
       </c>
       <c r="D41" s="1">
-        <v>39892</v>
+        <v>21840</v>
       </c>
       <c r="E41" s="2">
-        <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>198</v>
       </c>
       <c r="H41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="1"/>
@@ -35144,35 +35145,35 @@
       </c>
       <c r="L41" s="2">
         <f>ROUNDDOWN((K41-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="C42" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cassidy.Jennifer</v>
+        <v>Chambers.Oscar</v>
       </c>
       <c r="D42" s="1">
-        <v>21840</v>
+        <v>38810</v>
       </c>
       <c r="E42" s="2">
-        <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
         <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="1"/>
@@ -35180,26 +35181,26 @@
       </c>
       <c r="L42" s="2">
         <f>ROUNDDOWN((K42-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C43" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chambers.Oscar</v>
+        <v>Chandran.Nalin</v>
       </c>
       <c r="D43" s="1">
-        <v>38810</v>
+        <v>37556</v>
       </c>
       <c r="E43" s="2">
-        <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K44-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -35216,7 +35217,7 @@
       </c>
       <c r="L43" s="2">
         <f>ROUNDDOWN((K43-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -35224,17 +35225,17 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chandran.Nalin</v>
+        <v>Chandran.Roshan</v>
       </c>
       <c r="D44" s="1">
         <v>37556</v>
       </c>
       <c r="E44" s="2">
-        <f>ROUNDDOWN((K44-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>18</v>
       </c>
       <c r="F44" t="s">
@@ -35257,21 +35258,21 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chandran.Roshan</v>
+        <v>Chaplin.Andrea</v>
       </c>
       <c r="D45" s="1">
-        <v>37556</v>
+        <v>23379</v>
       </c>
       <c r="E45" s="2">
-        <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -35280,7 +35281,7 @@
         <v>198</v>
       </c>
       <c r="H45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="1"/>
@@ -35288,26 +35289,26 @@
       </c>
       <c r="L45" s="2">
         <f>ROUNDDOWN((K45-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C46" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chaplin.Andrea</v>
+        <v>Chapman.Lara</v>
       </c>
       <c r="D46" s="1">
-        <v>23379</v>
+        <v>39987</v>
       </c>
       <c r="E46" s="2">
-        <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>57</v>
+        <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -35324,7 +35325,7 @@
       </c>
       <c r="L46" s="2">
         <f>ROUNDDOWN((K46-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -35332,18 +35333,18 @@
         <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C47" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chapman.Lara</v>
+        <v>Chapman.Patrick</v>
       </c>
       <c r="D47" s="1">
-        <v>39987</v>
+        <v>38230</v>
       </c>
       <c r="E47" s="2">
-        <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K48-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -35352,7 +35353,7 @@
         <v>198</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="1"/>
@@ -35360,25 +35361,25 @@
       </c>
       <c r="L47" s="2">
         <f>ROUNDDOWN((K47-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="C48" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Chapman.Patrick</v>
+        <v>Clarke.Declan</v>
       </c>
       <c r="D48" s="1">
-        <v>38230</v>
+        <v>38355</v>
       </c>
       <c r="E48" s="2">
-        <f>ROUNDDOWN((K48-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>16</v>
       </c>
       <c r="F48" t="s">
@@ -35401,21 +35402,21 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C49" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Clarke.Declan</v>
+        <v>Collins.Elizabeth</v>
       </c>
       <c r="D49" s="1">
-        <v>38355</v>
+        <v>22758</v>
       </c>
       <c r="E49" s="2">
-        <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -35424,7 +35425,7 @@
         <v>198</v>
       </c>
       <c r="H49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="1"/>
@@ -35432,35 +35433,35 @@
       </c>
       <c r="L49" s="2">
         <f>ROUNDDOWN((K49-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C50" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Collins.Elizabeth</v>
+        <v>Coombe.Nathaniel</v>
       </c>
       <c r="D50" s="1">
-        <v>22758</v>
+        <v>38236</v>
       </c>
       <c r="E50" s="2">
-        <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>58</v>
+        <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>198</v>
       </c>
       <c r="H50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="1"/>
@@ -35468,26 +35469,26 @@
       </c>
       <c r="L50" s="2">
         <f>ROUNDDOWN((K50-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C51" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Coombe.Nathaniel</v>
+        <v>Cosgriff.Angus</v>
       </c>
       <c r="D51" s="1">
-        <v>38236</v>
+        <v>40282</v>
       </c>
       <c r="E51" s="2">
-        <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
@@ -35504,26 +35505,26 @@
       </c>
       <c r="L51" s="2">
         <f>ROUNDDOWN((K51-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C52" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cosgriff.Angus</v>
+        <v>Cowling.Darcy</v>
       </c>
       <c r="D52" s="1">
-        <v>40282</v>
+        <v>38052</v>
       </c>
       <c r="E52" s="2">
-        <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>50</v>
@@ -35540,35 +35541,35 @@
       </c>
       <c r="L52" s="2">
         <f>ROUNDDOWN((K52-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C53" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Cowling.Darcy</v>
+        <v>Dal Moro Ferreira.Isabela</v>
       </c>
       <c r="D53" s="1">
-        <v>38052</v>
+        <v>39431</v>
       </c>
       <c r="E53" s="2">
-        <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
         <v>198</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="1"/>
@@ -35576,35 +35577,35 @@
       </c>
       <c r="L53" s="2">
         <f>ROUNDDOWN((K53-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="str">
+      <c r="A54" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dal Moro Ferreira.Isabela</v>
+        <v>Dawes.Oscar</v>
       </c>
       <c r="D54" s="1">
-        <v>39431</v>
+        <v>39626</v>
       </c>
       <c r="E54" s="2">
-        <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>198</v>
       </c>
       <c r="H54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -35612,29 +35613,29 @@
       </c>
       <c r="L54" s="2">
         <f>ROUNDDOWN((K54-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="9" t="str">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawes.Oscar</v>
+        <v>Dawson.Bruce</v>
       </c>
       <c r="D55" s="1">
-        <v>39626</v>
+        <v>19555</v>
       </c>
       <c r="E55" s="2">
-        <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
         <v>198</v>
@@ -35648,7 +35649,7 @@
       </c>
       <c r="L55" s="2">
         <f>ROUNDDOWN((K55-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -35656,18 +35657,18 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawson.Bruce</v>
+        <v>Dawson.Jackie</v>
       </c>
       <c r="D56" s="1">
-        <v>19555</v>
+        <v>26350</v>
       </c>
       <c r="E56" s="2">
-        <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>67</v>
+        <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
@@ -35676,7 +35677,7 @@
         <v>198</v>
       </c>
       <c r="H56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -35684,35 +35685,35 @@
       </c>
       <c r="L56" s="2">
         <f>ROUNDDOWN((K56-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="C57" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dawson.Jackie</v>
+        <v>De Groot.Bas</v>
       </c>
       <c r="D57" s="1">
-        <v>26350</v>
+        <v>28333</v>
       </c>
       <c r="E57" s="2">
-        <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
         <v>198</v>
       </c>
       <c r="H57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -35720,29 +35721,29 @@
       </c>
       <c r="L57" s="2">
         <f>ROUNDDOWN((K57-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" t="str">
+      <c r="A58" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>De Groot.Bas</v>
+        <v>Deverson.Sebastian</v>
       </c>
       <c r="D58" s="1">
-        <v>28333</v>
+        <v>36790</v>
       </c>
       <c r="E58" s="2">
-        <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>43</v>
+        <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
         <v>198</v>
@@ -35756,35 +35757,35 @@
       </c>
       <c r="L58" s="2">
         <f>ROUNDDOWN((K58-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="9" t="str">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Deverson.Sebastian</v>
+        <v>Dhami.Nina</v>
       </c>
       <c r="D59" s="1">
-        <v>36790</v>
+        <v>40284</v>
       </c>
       <c r="E59" s="2">
-        <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>198</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -35792,7 +35793,7 @@
       </c>
       <c r="L59" s="2">
         <f>ROUNDDOWN((K59-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -35800,18 +35801,18 @@
         <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C60" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dhami.Nina</v>
+        <v>Dhami.Rajvir</v>
       </c>
       <c r="D60" s="1">
-        <v>40284</v>
+        <v>41144</v>
       </c>
       <c r="E60" s="2">
-        <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>49</v>
@@ -35820,7 +35821,7 @@
         <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -35828,26 +35829,26 @@
       </c>
       <c r="L60" s="2">
         <f>ROUNDDOWN((K60-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="C61" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dhami.Rajvir</v>
+        <v>Dippy.Charlotte</v>
       </c>
       <c r="D61" s="1">
-        <v>41144</v>
+        <v>39000</v>
       </c>
       <c r="E61" s="2">
-        <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
         <v>49</v>
@@ -35856,7 +35857,7 @@
         <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -35864,35 +35865,32 @@
       </c>
       <c r="L61" s="2">
         <f>ROUNDDOWN((K61-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C62" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dippy.Charlotte</v>
+        <v>Doe.Leighlan</v>
       </c>
       <c r="D62" s="1">
-        <v>39000</v>
+        <v>34944</v>
       </c>
       <c r="E62" s="2">
-        <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
+        <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
         <v>198</v>
       </c>
       <c r="H62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -35900,26 +35898,29 @@
       </c>
       <c r="L62" s="2">
         <f>ROUNDDOWN((K62-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C63" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Doe.Leighlan</v>
+        <v>Dwyer.Connor</v>
       </c>
       <c r="D63" s="1">
-        <v>34944</v>
+        <v>39902</v>
       </c>
       <c r="E63" s="2">
-        <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>201</v>
       </c>
       <c r="G63" t="s">
         <v>198</v>
@@ -35933,7 +35934,7 @@
       </c>
       <c r="L63" s="2">
         <f>ROUNDDOWN((K63-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -35941,18 +35942,18 @@
         <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C64" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dwyer.Connor</v>
+        <v>Dwyer.Oscar</v>
       </c>
       <c r="D64" s="1">
-        <v>39902</v>
+        <v>39087</v>
       </c>
       <c r="E64" s="2">
-        <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
         <v>201</v>
@@ -35969,29 +35970,29 @@
       </c>
       <c r="L64" s="2">
         <f>ROUNDDOWN((K64-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Dzodzos.Michael</v>
+      </c>
+      <c r="D65" s="1">
+        <v>34256</v>
+      </c>
+      <c r="E65" s="2">
+        <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>232</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dwyer.Oscar</v>
-      </c>
-      <c r="D65" s="1">
-        <v>39087</v>
-      </c>
-      <c r="E65" s="2">
-        <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>201</v>
       </c>
       <c r="G65" t="s">
         <v>198</v>
@@ -36005,35 +36006,35 @@
       </c>
       <c r="L65" s="2">
         <f>ROUNDDOWN((K65-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Eladly.Laila</v>
+      </c>
+      <c r="D66" s="1">
+        <v>38882</v>
+      </c>
+      <c r="E66" s="2">
+        <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Dzodzos.Michael</v>
-      </c>
-      <c r="D66" s="1">
-        <v>34256</v>
-      </c>
-      <c r="E66" s="2">
-        <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>27</v>
-      </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
         <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -36041,7 +36042,7 @@
       </c>
       <c r="L66" s="2">
         <f>ROUNDDOWN((K66-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -36049,18 +36050,18 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="C67" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Eladly.Laila</v>
+        <v>Eladly.Salma</v>
       </c>
       <c r="D67" s="1">
-        <v>38882</v>
+        <v>40294</v>
       </c>
       <c r="E67" s="2">
-        <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K68-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>208</v>
@@ -36077,29 +36078,29 @@
       </c>
       <c r="L67" s="2">
         <f>ROUNDDOWN((K67-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="str">
+      <c r="A68" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Eladly.Salma</v>
+        <v>Fang.Yaxian</v>
       </c>
       <c r="D68" s="1">
-        <v>40294</v>
+        <v>40502</v>
       </c>
       <c r="E68" s="2">
-        <f>ROUNDDOWN((K68-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
         <v>198</v>
@@ -36117,31 +36118,31 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C69" s="9" t="str">
+      <c r="A69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fang.Yaxian</v>
+        <v>Farrer.Henry</v>
       </c>
       <c r="D69" s="1">
-        <v>40502</v>
+        <v>39566</v>
       </c>
       <c r="E69" s="2">
-        <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G69" t="s">
         <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -36149,29 +36150,29 @@
       </c>
       <c r="L69" s="2">
         <f>ROUNDDOWN((K69-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C70" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Farrer.Henry</v>
+        <v>Ferguson.Christian</v>
       </c>
       <c r="D70" s="1">
-        <v>39566</v>
+        <v>39420</v>
       </c>
       <c r="E70" s="2">
-        <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>198</v>
@@ -36185,7 +36186,7 @@
       </c>
       <c r="L70" s="2">
         <f>ROUNDDOWN((K70-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -36193,18 +36194,18 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C71" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Christian</v>
+        <v>Ferguson.Clayton</v>
       </c>
       <c r="D71" s="1">
-        <v>39420</v>
+        <v>36770</v>
       </c>
       <c r="E71" s="2">
-        <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
         <v>49</v>
@@ -36221,7 +36222,7 @@
       </c>
       <c r="L71" s="2">
         <f>ROUNDDOWN((K71-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -36229,18 +36230,18 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Clayton</v>
+        <v>Ferguson.Darren</v>
       </c>
       <c r="D72" s="1">
-        <v>36770</v>
+        <v>26818</v>
       </c>
       <c r="E72" s="2">
-        <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>49</v>
@@ -36257,7 +36258,7 @@
       </c>
       <c r="L72" s="2">
         <f>ROUNDDOWN((K72-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -36265,18 +36266,18 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Darren</v>
+        <v>Ferguson.Nadine</v>
       </c>
       <c r="D73" s="1">
-        <v>26818</v>
+        <v>27640</v>
       </c>
       <c r="E73" s="2">
-        <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
         <v>49</v>
@@ -36285,7 +36286,7 @@
         <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="1"/>
@@ -36293,29 +36294,29 @@
       </c>
       <c r="L73" s="2">
         <f>ROUNDDOWN((K73-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="C74" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ferguson.Nadine</v>
+        <v>Field.Sophie</v>
       </c>
       <c r="D74" s="1">
-        <v>27640</v>
+        <v>37803</v>
       </c>
       <c r="E74" s="2">
-        <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
         <v>198</v>
@@ -36329,35 +36330,35 @@
       </c>
       <c r="L74" s="2">
         <f>ROUNDDOWN((K74-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" t="str">
+        <v>325</v>
+      </c>
+      <c r="C75" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Field.Sophie</v>
+        <v>Fior.Sebastian</v>
       </c>
       <c r="D75" s="1">
-        <v>37803</v>
+        <v>40781</v>
       </c>
       <c r="E75" s="2">
-        <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
         <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="1"/>
@@ -36365,35 +36366,35 @@
       </c>
       <c r="L75" s="2">
         <f>ROUNDDOWN((K75-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
-      </c>
-      <c r="C76" s="9" t="str">
+        <v>36</v>
+      </c>
+      <c r="C76" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fior.Sebastian</v>
+        <v>Foale.Anna</v>
       </c>
       <c r="D76" s="1">
-        <v>40781</v>
+        <v>21317</v>
       </c>
       <c r="E76" s="2">
-        <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="G76" t="s">
         <v>198</v>
       </c>
       <c r="H76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="1"/>
@@ -36401,29 +36402,29 @@
       </c>
       <c r="L76" s="2">
         <f>ROUNDDOWN((K76-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="C77" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Foale.Anna</v>
+        <v>Foxx.Lexie</v>
       </c>
       <c r="D77" s="1">
-        <v>21317</v>
+        <v>38869</v>
       </c>
       <c r="E77" s="2">
-        <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>62</v>
+        <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s">
         <v>198</v>
@@ -36437,35 +36438,35 @@
       </c>
       <c r="L77" s="2">
         <f>ROUNDDOWN((K77-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="C78" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Foxx.Lexie</v>
+        <v>Fuda.Nate</v>
       </c>
       <c r="D78" s="1">
-        <v>38869</v>
+        <v>38590</v>
       </c>
       <c r="E78" s="2">
-        <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>198</v>
       </c>
       <c r="H78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="1"/>
@@ -36473,26 +36474,26 @@
       </c>
       <c r="L78" s="2">
         <f>ROUNDDOWN((K78-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C79" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fuda.Nate</v>
+        <v>Fulcher.Aaron</v>
       </c>
       <c r="D79" s="1">
-        <v>38590</v>
+        <v>38908</v>
       </c>
       <c r="E79" s="2">
-        <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K80-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
@@ -36509,29 +36510,29 @@
       </c>
       <c r="L79" s="2">
         <f>ROUNDDOWN((K79-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" t="str">
+        <v>352</v>
+      </c>
+      <c r="C80" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Fulcher.Aaron</v>
+        <v>Grasby.Kifaru</v>
       </c>
       <c r="D80" s="1">
-        <v>38908</v>
+        <v>39016</v>
       </c>
       <c r="E80" s="2">
-        <f>ROUNDDOWN((K80-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
         <v>198</v>
@@ -36553,18 +36554,18 @@
         <v>350</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Grasby.Kifaru</v>
+        <v>Grasby.Tembo</v>
       </c>
       <c r="D81" s="1">
-        <v>39016</v>
+        <v>39668</v>
       </c>
       <c r="E81" s="2">
-        <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
         <v>49</v>
@@ -36581,29 +36582,29 @@
       </c>
       <c r="L81" s="2">
         <f>ROUNDDOWN((K81-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" s="9" t="str">
+        <v>111</v>
+      </c>
+      <c r="C82" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Grasby.Tembo</v>
+        <v>Groom.Lydon</v>
       </c>
       <c r="D82" s="1">
-        <v>39668</v>
+        <v>38895</v>
       </c>
       <c r="E82" s="2">
-        <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
         <v>198</v>
@@ -36617,35 +36618,35 @@
       </c>
       <c r="L82" s="2">
         <f>ROUNDDOWN((K82-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="C83" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Groom.Lydon</v>
+        <v>Hamilton.Rhona</v>
       </c>
       <c r="D83" s="1">
-        <v>38895</v>
+        <v>35156</v>
       </c>
       <c r="E83" s="2">
-        <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
         <v>198</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="1"/>
@@ -36653,35 +36654,35 @@
       </c>
       <c r="L83" s="2">
         <f>ROUNDDOWN((K83-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="C84" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hamilton.Rhona</v>
+        <v>Harkin-Noack.Jai</v>
       </c>
       <c r="D84" s="1">
-        <v>35156</v>
+        <v>39492</v>
       </c>
       <c r="E84" s="2">
-        <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
         <v>198</v>
       </c>
       <c r="H84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="1"/>
@@ -36689,35 +36690,35 @@
       </c>
       <c r="L84" s="2">
         <f>ROUNDDOWN((K84-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C85" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Harkin-Noack.Jai</v>
+        <v>Hasan.Aaliyah</v>
       </c>
       <c r="D85" s="1">
-        <v>39492</v>
+        <v>41069</v>
       </c>
       <c r="E85" s="2">
-        <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
         <v>198</v>
       </c>
       <c r="H85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="1"/>
@@ -36725,35 +36726,35 @@
       </c>
       <c r="L85" s="2">
         <f>ROUNDDOWN((K85-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C86" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hasan.Aaliyah</v>
+        <v>Haynes.Christopher</v>
       </c>
       <c r="D86" s="1">
-        <v>41069</v>
+        <v>40385</v>
       </c>
       <c r="E86" s="2">
-        <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s">
         <v>198</v>
       </c>
       <c r="H86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="1"/>
@@ -36761,26 +36762,26 @@
       </c>
       <c r="L86" s="2">
         <f>ROUNDDOWN((K86-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="C87" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Haynes.Christopher</v>
+        <v>Henry.Jack</v>
       </c>
       <c r="D87" s="1">
-        <v>40385</v>
+        <v>39925</v>
       </c>
       <c r="E87" s="2">
-        <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
@@ -36797,7 +36798,7 @@
       </c>
       <c r="L87" s="2">
         <f>ROUNDDOWN((K87-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -36805,18 +36806,18 @@
         <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="C88" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Henry.Jack</v>
+        <v>Henry.Thomas</v>
       </c>
       <c r="D88" s="1">
-        <v>39925</v>
+        <v>39051</v>
       </c>
       <c r="E88" s="2">
-        <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
@@ -36833,26 +36834,26 @@
       </c>
       <c r="L88" s="2">
         <f>ROUNDDOWN((K88-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C89" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Henry.Thomas</v>
+        <v>Hofmann.Audrey</v>
       </c>
       <c r="D89" s="1">
-        <v>39051</v>
+        <v>40629</v>
       </c>
       <c r="E89" s="2">
-        <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
         <v>50</v>
@@ -36861,7 +36862,7 @@
         <v>198</v>
       </c>
       <c r="H89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="1"/>
@@ -36869,7 +36870,7 @@
       </c>
       <c r="L89" s="2">
         <f>ROUNDDOWN((K89-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -36877,18 +36878,18 @@
         <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C90" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hofmann.Audrey</v>
+        <v>Hofmann.Maeve</v>
       </c>
       <c r="D90" s="1">
-        <v>40629</v>
+        <v>41346</v>
       </c>
       <c r="E90" s="2">
-        <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
@@ -36905,35 +36906,35 @@
       </c>
       <c r="L90" s="2">
         <f>ROUNDDOWN((K90-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="C91" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hofmann.Maeve</v>
+        <v>Hooper.Mason</v>
       </c>
       <c r="D91" s="1">
-        <v>41346</v>
+        <v>39119</v>
       </c>
       <c r="E91" s="2">
-        <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>7</v>
+        <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G91" t="s">
         <v>198</v>
       </c>
       <c r="H91" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="1"/>
@@ -36941,29 +36942,29 @@
       </c>
       <c r="L91" s="2">
         <f>ROUNDDOWN((K91-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="C92" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hooper.Mason</v>
+        <v>Howlett.Steve</v>
       </c>
       <c r="D92" s="1">
-        <v>39119</v>
+        <v>25764</v>
       </c>
       <c r="E92" s="2">
-        <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
         <v>198</v>
@@ -36977,35 +36978,35 @@
       </c>
       <c r="L92" s="2">
         <f>ROUNDDOWN((K92-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Hyde.Kate</v>
+      </c>
+      <c r="D93" s="1">
+        <v>39264</v>
+      </c>
+      <c r="E93" s="2">
+        <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Howlett.Steve</v>
-      </c>
-      <c r="D93" s="1">
-        <v>25764</v>
-      </c>
-      <c r="E93" s="2">
-        <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
-      </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
         <v>198</v>
       </c>
       <c r="H93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="1"/>
@@ -37013,35 +37014,35 @@
       </c>
       <c r="L93" s="2">
         <f>ROUNDDOWN((K93-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Iacopetta.Leonardo</v>
+      </c>
+      <c r="D94" s="1">
+        <v>40429</v>
+      </c>
+      <c r="E94" s="2">
+        <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C94" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Hyde.Kate</v>
-      </c>
-      <c r="D94" s="1">
-        <v>39264</v>
-      </c>
-      <c r="E94" s="2">
-        <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>51</v>
       </c>
       <c r="G94" t="s">
         <v>198</v>
       </c>
       <c r="H94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="1"/>
@@ -37049,29 +37050,29 @@
       </c>
       <c r="L94" s="2">
         <f>ROUNDDOWN((K94-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="C95" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Iacopetta.Leonardo</v>
+        <v>Ince.Harry</v>
       </c>
       <c r="D95" s="1">
-        <v>40429</v>
+        <v>38522</v>
       </c>
       <c r="E95" s="2">
-        <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
         <v>198</v>
@@ -37085,35 +37086,35 @@
       </c>
       <c r="L95" s="2">
         <f>ROUNDDOWN((K95-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="C96" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ince.Harry</v>
+        <v>Ismael.Lanya</v>
       </c>
       <c r="D96" s="1">
-        <v>38522</v>
+        <v>40978</v>
       </c>
       <c r="E96" s="2">
-        <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G96" t="s">
         <v>198</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="1"/>
@@ -37121,7 +37122,7 @@
       </c>
       <c r="L96" s="2">
         <f>ROUNDDOWN((K96-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -37129,18 +37130,18 @@
         <v>296</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C97" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ismael.Lanya</v>
+        <v>Ismael.Ronya</v>
       </c>
       <c r="D97" s="1">
-        <v>40978</v>
+        <v>39499</v>
       </c>
       <c r="E97" s="2">
-        <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
         <v>208</v>
@@ -37157,35 +37158,35 @@
       </c>
       <c r="L97" s="2">
         <f>ROUNDDOWN((K97-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="C98" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Ismael.Ronya</v>
+        <v>Jackson.Sam</v>
       </c>
       <c r="D98" s="1">
-        <v>39499</v>
+        <v>35386</v>
       </c>
       <c r="E98" s="2">
-        <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
         <v>198</v>
       </c>
       <c r="H98" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="1"/>
@@ -37193,26 +37194,26 @@
       </c>
       <c r="L98" s="2">
         <f>ROUNDDOWN((K98-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C99" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jackson.Sam</v>
+        <v>Jamieson.Makayla</v>
       </c>
       <c r="D99" s="1">
-        <v>35386</v>
+        <v>39901</v>
       </c>
       <c r="E99" s="2">
-        <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -37221,7 +37222,7 @@
         <v>198</v>
       </c>
       <c r="H99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="1"/>
@@ -37229,35 +37230,35 @@
       </c>
       <c r="L99" s="2">
         <f>ROUNDDOWN((K99-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" t="str">
+      <c r="A100" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C100" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jamieson.Makayla</v>
+        <v>Jankovic.Ivan</v>
       </c>
       <c r="D100" s="1">
-        <v>39901</v>
+        <v>36146</v>
       </c>
       <c r="E100" s="2">
-        <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G100" t="s">
         <v>198</v>
       </c>
       <c r="H100" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" ref="K100:K156" si="2">$K$1</f>
@@ -37265,29 +37266,29 @@
       </c>
       <c r="L100" s="2">
         <f>ROUNDDOWN((K100-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C101" s="9" t="str">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jankovic.Ivan</v>
+        <v>Jones.Patrick</v>
       </c>
       <c r="D101" s="1">
-        <v>36146</v>
+        <v>38151</v>
       </c>
       <c r="E101" s="2">
-        <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="G101" t="s">
         <v>198</v>
@@ -37301,29 +37302,29 @@
       </c>
       <c r="L101" s="2">
         <f>ROUNDDOWN((K101-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C102" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Jones.Patrick</v>
+        <v>Kasperski.Andrew</v>
       </c>
       <c r="D102" s="1">
-        <v>38151</v>
+        <v>19934</v>
       </c>
       <c r="E102" s="2">
-        <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>66</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G102" t="s">
         <v>198</v>
@@ -37337,7 +37338,7 @@
       </c>
       <c r="L102" s="2">
         <f>ROUNDDOWN((K102-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -37345,18 +37346,18 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C103" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Andrew</v>
+        <v>Kasperski.Louis</v>
       </c>
       <c r="D103" s="1">
-        <v>19934</v>
+        <v>37555</v>
       </c>
       <c r="E103" s="2">
-        <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>66</v>
+        <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
         <v>49</v>
@@ -37373,7 +37374,7 @@
       </c>
       <c r="L103" s="2">
         <f>ROUNDDOWN((K103-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -37381,18 +37382,18 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C104" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Louis</v>
+        <v>Kasperski.Marek</v>
       </c>
       <c r="D104" s="1">
-        <v>37555</v>
+        <v>20665</v>
       </c>
       <c r="E104" s="2">
-        <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -37409,29 +37410,29 @@
       </c>
       <c r="L104" s="2">
         <f>ROUNDDOWN((K104-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C105" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kasperski.Marek</v>
+        <v>Kempe.Dougal</v>
       </c>
       <c r="D105" s="1">
-        <v>20665</v>
+        <v>38787</v>
       </c>
       <c r="E105" s="2">
-        <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="G105" t="s">
         <v>198</v>
@@ -37445,29 +37446,29 @@
       </c>
       <c r="L105" s="2">
         <f>ROUNDDOWN((K105-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" t="str">
+      <c r="A106" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kempe.Dougal</v>
+        <v>Kennedy.Hamish</v>
       </c>
       <c r="D106" s="1">
-        <v>38787</v>
+        <v>39119</v>
       </c>
       <c r="E106" s="2">
-        <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s">
         <v>198</v>
@@ -37481,29 +37482,29 @@
       </c>
       <c r="L106" s="2">
         <f>ROUNDDOWN((K106-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C107" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kennedy.Hamish</v>
+        <v>King.Ari</v>
       </c>
       <c r="D107" s="1">
-        <v>39119</v>
+        <v>30884</v>
       </c>
       <c r="E107" s="2">
-        <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G107" t="s">
         <v>198</v>
@@ -37517,29 +37518,29 @@
       </c>
       <c r="L107" s="2">
         <f>ROUNDDOWN((K107-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C108" s="9" t="str">
+      <c r="A108" t="s">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>King.Ari</v>
+        <v>Kingston.Angus</v>
       </c>
       <c r="D108" s="1">
-        <v>30884</v>
+        <v>26075</v>
       </c>
       <c r="E108" s="2">
-        <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>36</v>
+        <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
         <v>198</v>
@@ -37553,7 +37554,7 @@
       </c>
       <c r="L108" s="2">
         <f>ROUNDDOWN((K108-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -37561,18 +37562,18 @@
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C109" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kingston.Angus</v>
+        <v>Kingston.Oscar</v>
       </c>
       <c r="D109" s="1">
-        <v>26075</v>
+        <v>39279</v>
       </c>
       <c r="E109" s="2">
-        <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -37589,29 +37590,29 @@
       </c>
       <c r="L109" s="2">
         <f>ROUNDDOWN((K109-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C110" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kingston.Oscar</v>
+        <v>Kinnon.David</v>
       </c>
       <c r="D110" s="1">
-        <v>39279</v>
+        <v>28695</v>
       </c>
       <c r="E110" s="2">
-        <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G110" t="s">
         <v>198</v>
@@ -37625,35 +37626,35 @@
       </c>
       <c r="L110" s="2">
         <f>ROUNDDOWN((K110-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" t="str">
+      <c r="A111" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kinnon.David</v>
+        <v>Kirby.Maria</v>
       </c>
       <c r="D111" s="1">
-        <v>28695</v>
+        <v>23752</v>
       </c>
       <c r="E111" s="2">
-        <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>56</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
         <v>198</v>
       </c>
       <c r="H111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="2"/>
@@ -37661,26 +37662,26 @@
       </c>
       <c r="L111" s="2">
         <f>ROUNDDOWN((K111-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C112" s="9" t="str">
+      <c r="A112" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kirby.Maria</v>
+        <v>Kurbatfinski.Ashleigh</v>
       </c>
       <c r="D112" s="1">
-        <v>23752</v>
+        <v>37326</v>
       </c>
       <c r="E112" s="2">
-        <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
@@ -37697,7 +37698,7 @@
       </c>
       <c r="L112" s="2">
         <f>ROUNDDOWN((K112-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -37705,27 +37706,27 @@
         <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" t="str">
+        <v>312</v>
+      </c>
+      <c r="C113" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kurbatfinski.Ashleigh</v>
+        <v>Kurbatfinski.Zvonko</v>
       </c>
       <c r="D113" s="1">
-        <v>37326</v>
+        <v>25145</v>
       </c>
       <c r="E113" s="2">
-        <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>52</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="G113" t="s">
         <v>198</v>
       </c>
       <c r="H113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="2"/>
@@ -37733,29 +37734,29 @@
       </c>
       <c r="L113" s="2">
         <f>ROUNDDOWN((K113-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
-      </c>
-      <c r="C114" s="9" t="str">
+        <v>71</v>
+      </c>
+      <c r="C114" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kurbatfinski.Zvonko</v>
+        <v>Lam.Tai Yuen</v>
       </c>
       <c r="D114" s="1">
-        <v>25145</v>
+        <v>34512</v>
       </c>
       <c r="E114" s="2">
-        <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>52</v>
+        <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
         <v>198</v>
@@ -37769,29 +37770,29 @@
       </c>
       <c r="L114" s="2">
         <f>ROUNDDOWN((K114-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="C115" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lam.Tai Yuen</v>
+        <v>Leach.Noah</v>
       </c>
       <c r="D115" s="1">
-        <v>34512</v>
+        <v>40165</v>
       </c>
       <c r="E115" s="2">
-        <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G115" t="s">
         <v>198</v>
@@ -37805,29 +37806,29 @@
       </c>
       <c r="L115" s="2">
         <f>ROUNDDOWN((K115-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="C116" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leach.Noah</v>
+        <v>Leclercq.Milan</v>
       </c>
       <c r="D116" s="1">
-        <v>40165</v>
+        <v>39646</v>
       </c>
       <c r="E116" s="2">
-        <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
         <v>11</v>
-      </c>
-      <c r="F116" t="s">
-        <v>201</v>
       </c>
       <c r="G116" t="s">
         <v>198</v>
@@ -37841,29 +37842,29 @@
       </c>
       <c r="L116" s="2">
         <f>ROUNDDOWN((K116-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" t="str">
+        <v>42</v>
+      </c>
+      <c r="C117" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leclercq.Milan</v>
+        <v>Lee.Ian</v>
       </c>
       <c r="D117" s="1">
-        <v>39646</v>
+        <v>38614</v>
       </c>
       <c r="E117" s="2">
-        <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G117" t="s">
         <v>198</v>
@@ -37877,26 +37878,26 @@
       </c>
       <c r="L117" s="2">
         <f>ROUNDDOWN((K117-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B118" t="s">
-        <v>42</v>
+      <c r="B118" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="C118" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lee.Ian</v>
+        <v>Lee.Xavier</v>
       </c>
       <c r="D118" s="1">
-        <v>38614</v>
+        <v>40444</v>
       </c>
       <c r="E118" s="2">
-        <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -37913,29 +37914,29 @@
       </c>
       <c r="L118" s="2">
         <f>ROUNDDOWN((K118-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" s="9" t="str">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lee.Xavier</v>
+        <v>Leonov.Tikhon</v>
       </c>
       <c r="D119" s="1">
-        <v>40444</v>
+        <v>40604</v>
       </c>
       <c r="E119" s="2">
-        <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
         <v>198</v>
@@ -37949,26 +37950,26 @@
       </c>
       <c r="L119" s="2">
         <f>ROUNDDOWN((K119-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" t="str">
+      <c r="A120" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Leonov.Tikhon</v>
+        <v>Li.Matthew</v>
       </c>
       <c r="D120" s="1">
-        <v>40604</v>
+        <v>41249</v>
       </c>
       <c r="E120" s="2">
-        <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -37985,29 +37986,29 @@
       </c>
       <c r="L120" s="2">
         <f>ROUNDDOWN((K120-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="9" t="str">
+      <c r="A121" t="s">
+        <v>298</v>
+      </c>
+      <c r="B121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Li.Matthew</v>
+        <v>Liptak.Patrick</v>
       </c>
       <c r="D121" s="1">
-        <v>41249</v>
+        <v>26295</v>
       </c>
       <c r="E121" s="2">
-        <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
         <v>198</v>
@@ -38021,29 +38022,29 @@
       </c>
       <c r="L121" s="2">
         <f>ROUNDDOWN((K121-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>298</v>
-      </c>
-      <c r="B122" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" t="str">
+      <c r="A122" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Liptak.Patrick</v>
+        <v>Liwanen.Adam</v>
       </c>
       <c r="D122" s="1">
-        <v>26295</v>
+        <v>35318</v>
       </c>
       <c r="E122" s="2">
-        <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="G122" t="s">
         <v>198</v>
@@ -38057,29 +38058,29 @@
       </c>
       <c r="L122" s="2">
         <f>ROUNDDOWN((K122-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Loveday.Malachi</v>
+      </c>
+      <c r="D123" s="1">
+        <v>40103</v>
+      </c>
+      <c r="E123" s="2">
+        <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Liwanen.Adam</v>
-      </c>
-      <c r="D123" s="1">
-        <v>35318</v>
-      </c>
-      <c r="E123" s="2">
-        <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
-      </c>
-      <c r="F123" t="s">
-        <v>309</v>
       </c>
       <c r="G123" t="s">
         <v>198</v>
@@ -38093,35 +38094,35 @@
       </c>
       <c r="L123" s="2">
         <f>ROUNDDOWN((K123-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="C124" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Loveday.Malachi</v>
+        <v>Lucy.Sarah</v>
       </c>
       <c r="D124" s="1">
-        <v>40103</v>
+        <v>26742</v>
       </c>
       <c r="E124" s="2">
-        <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>47</v>
+      </c>
+      <c r="F124" t="s">
         <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>49</v>
       </c>
       <c r="G124" t="s">
         <v>198</v>
       </c>
       <c r="H124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="2"/>
@@ -38129,35 +38130,35 @@
       </c>
       <c r="L124" s="2">
         <f>ROUNDDOWN((K124-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C125" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lucy.Sarah</v>
+        <v>Mackenzie.Jonathan</v>
       </c>
       <c r="D125" s="1">
-        <v>26742</v>
+        <v>33491</v>
       </c>
       <c r="E125" s="2">
-        <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
         <v>198</v>
       </c>
       <c r="H125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="2"/>
@@ -38165,26 +38166,26 @@
       </c>
       <c r="L125" s="2">
         <f>ROUNDDOWN((K125-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C126" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mackenzie.Jonathan</v>
+        <v>Maksimovic.Danica</v>
       </c>
       <c r="D126" s="1">
-        <v>33491</v>
+        <v>38795</v>
       </c>
       <c r="E126" s="2">
-        <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
         <v>51</v>
@@ -38193,7 +38194,7 @@
         <v>198</v>
       </c>
       <c r="H126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" si="2"/>
@@ -38201,35 +38202,35 @@
       </c>
       <c r="L126" s="2">
         <f>ROUNDDOWN((K126-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="C127" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Maksimovic.Danica</v>
+        <v>Markham.Daniel</v>
       </c>
       <c r="D127" s="1">
-        <v>38795</v>
+        <v>40283</v>
       </c>
       <c r="E127" s="2">
-        <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s">
         <v>198</v>
       </c>
       <c r="H127" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="2"/>
@@ -38237,29 +38238,29 @@
       </c>
       <c r="L127" s="2">
         <f>ROUNDDOWN((K127-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="C128" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Markham.Daniel</v>
+        <v>Markovs.Arturs</v>
       </c>
       <c r="D128" s="1">
-        <v>40283</v>
+        <v>32224</v>
       </c>
       <c r="E128" s="2">
-        <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G128" t="s">
         <v>198</v>
@@ -38273,29 +38274,29 @@
       </c>
       <c r="L128" s="2">
         <f>ROUNDDOWN((K128-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
-      </c>
-      <c r="C129" t="str">
+        <v>311</v>
+      </c>
+      <c r="C129" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Markovs.Arturs</v>
+        <v>Marshall.Stuart</v>
       </c>
       <c r="D129" s="1">
-        <v>32224</v>
+        <v>31780</v>
       </c>
       <c r="E129" s="2">
-        <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>198</v>
@@ -38309,29 +38310,29 @@
       </c>
       <c r="L129" s="2">
         <f>ROUNDDOWN((K129-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="9" t="str">
+        <v>203</v>
+      </c>
+      <c r="C130" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Marshall.Stuart</v>
+        <v>Martin.Errol</v>
       </c>
       <c r="D130" s="1">
-        <v>31780</v>
+        <v>38638</v>
       </c>
       <c r="E130" s="2">
-        <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G130" t="s">
         <v>198</v>
@@ -38345,29 +38346,29 @@
       </c>
       <c r="L130" s="2">
         <f>ROUNDDOWN((K130-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C131" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Martin.Errol</v>
+        <v>Mayer.Peter</v>
       </c>
       <c r="D131" s="1">
-        <v>38638</v>
+        <v>15125</v>
       </c>
       <c r="E131" s="2">
-        <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G131" t="s">
         <v>198</v>
@@ -38381,29 +38382,29 @@
       </c>
       <c r="L131" s="2">
         <f>ROUNDDOWN((K131-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="C132" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mayer.Peter</v>
+        <v>Mckenzie-Campbell.Reegan</v>
       </c>
       <c r="D132" s="1">
-        <v>15125</v>
+        <v>33524</v>
       </c>
       <c r="E132" s="2">
-        <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>79</v>
+        <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="G132" t="s">
         <v>198</v>
@@ -38417,35 +38418,35 @@
       </c>
       <c r="L132" s="2">
         <f>ROUNDDOWN((K132-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="C133" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Mckenzie-Campbell.Reegan</v>
+        <v>Menz.Ursula</v>
       </c>
       <c r="D133" s="1">
-        <v>33524</v>
+        <v>32485</v>
       </c>
       <c r="E133" s="2">
-        <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
         <v>198</v>
       </c>
       <c r="H133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" si="2"/>
@@ -38453,29 +38454,29 @@
       </c>
       <c r="L133" s="2">
         <f>ROUNDDOWN((K133-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="C134" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Menz.Ursula</v>
+        <v>Menzel.Phoebe</v>
       </c>
       <c r="D134" s="1">
-        <v>32485</v>
+        <v>40050</v>
       </c>
       <c r="E134" s="2">
-        <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G134" t="s">
         <v>198</v>
@@ -38489,29 +38490,29 @@
       </c>
       <c r="L134" s="2">
         <f>ROUNDDOWN((K134-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C135" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Menzel.Phoebe</v>
+        <v>Metha.Demelza</v>
       </c>
       <c r="D135" s="1">
-        <v>40050</v>
+        <v>37925</v>
       </c>
       <c r="E135" s="2">
-        <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
         <v>198</v>
@@ -38525,35 +38526,35 @@
       </c>
       <c r="L135" s="2">
         <f>ROUNDDOWN((K135-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C136" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Metha.Demelza</v>
+        <v>Millard.Eddie</v>
       </c>
       <c r="D136" s="1">
-        <v>37925</v>
+        <v>39961</v>
       </c>
       <c r="E136" s="2">
-        <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G136" t="s">
         <v>198</v>
       </c>
       <c r="H136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K136" s="1">
         <f t="shared" si="2"/>
@@ -38561,35 +38562,35 @@
       </c>
       <c r="L136" s="2">
         <f>ROUNDDOWN((K136-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" t="str">
+        <v>413</v>
+      </c>
+      <c r="C137" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Millard.Eddie</v>
-      </c>
-      <c r="D137" s="1">
-        <v>39961</v>
+        <v>Moorhouse.Alexandra</v>
+      </c>
+      <c r="D137" s="31">
+        <v>32480</v>
       </c>
       <c r="E137" s="2">
         <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G137" t="s">
         <v>198</v>
       </c>
       <c r="H137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K137" s="1">
         <f t="shared" si="2"/>
@@ -38597,7 +38598,7 @@
       </c>
       <c r="L137" s="2">
         <f>ROUNDDOWN((K137-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -39643,30 +39644,27 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
-      </c>
-      <c r="C167" t="str">
+        <v>411</v>
+      </c>
+      <c r="C167" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Skrabanich.Sunday</v>
-      </c>
-      <c r="D167" s="1">
-        <v>40742</v>
+        <v>Scully.Mark</v>
+      </c>
+      <c r="D167" s="31">
+        <v>25027</v>
       </c>
       <c r="E167" s="2">
         <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G167" t="s">
         <v>198</v>
       </c>
       <c r="H167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K167" s="1">
         <f t="shared" si="3"/>
@@ -39674,35 +39672,35 @@
       </c>
       <c r="L167" s="2">
         <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="C168" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Smith.Jacob</v>
+        <v>Skrabanich.Sunday</v>
       </c>
       <c r="D168" s="1">
-        <v>39567</v>
+        <v>40742</v>
       </c>
       <c r="E168" s="2">
-        <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K167-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="H168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K168" s="1">
         <f t="shared" si="3"/>
@@ -39710,32 +39708,32 @@
       </c>
       <c r="L168" s="2">
         <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="C169" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sollars.Alan</v>
+        <v>Smith.Jacob</v>
       </c>
       <c r="D169" s="1">
-        <v>16615</v>
+        <v>39567</v>
       </c>
       <c r="E169" s="2">
-        <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>75</v>
+        <f>ROUNDDOWN((K168-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H169" t="s">
         <v>317</v>
@@ -39746,35 +39744,35 @@
       </c>
       <c r="L169" s="2">
         <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C170" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Sopru.Coraine</v>
+        <v>Sollars.Alan</v>
       </c>
       <c r="D170" s="1">
-        <v>17487</v>
+        <v>16615</v>
       </c>
       <c r="E170" s="2">
-        <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>73</v>
+        <f>ROUNDDOWN((K169-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>75</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G170" t="s">
         <v>198</v>
       </c>
       <c r="H170" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K170" s="1">
         <f t="shared" si="3"/>
@@ -39782,35 +39780,35 @@
       </c>
       <c r="L170" s="2">
         <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C171" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spangler.Ashton</v>
+        <v>Sopru.Coraine</v>
       </c>
       <c r="D171" s="1">
-        <v>32198</v>
+        <v>17487</v>
       </c>
       <c r="E171" s="2">
-        <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <f>ROUNDDOWN((K170-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>73</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
         <v>198</v>
       </c>
       <c r="H171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K171" s="1">
         <f t="shared" si="3"/>
@@ -39818,26 +39816,26 @@
       </c>
       <c r="L171" s="2">
         <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C172" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Dov</v>
+        <v>Spangler.Ashton</v>
       </c>
       <c r="D172" s="1">
-        <v>28067</v>
+        <v>32198</v>
       </c>
       <c r="E172" s="2">
-        <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>44</v>
+        <f>ROUNDDOWN((K171-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
         <v>50</v>
@@ -39854,7 +39852,7 @@
       </c>
       <c r="L172" s="2">
         <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -39862,18 +39860,18 @@
         <v>30</v>
       </c>
       <c r="B173" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C173" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Spinks.Ranger</v>
+        <v>Spinks.Dov</v>
       </c>
       <c r="D173" s="1">
-        <v>39299</v>
+        <v>28067</v>
       </c>
       <c r="E173" s="2">
-        <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K172-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>44</v>
       </c>
       <c r="F173" t="s">
         <v>50</v>
@@ -39890,29 +39888,29 @@
       </c>
       <c r="L173" s="2">
         <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C174" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Staehr.Craig</v>
+        <v>Spinks.Ranger</v>
       </c>
       <c r="D174" s="1">
-        <v>26410</v>
+        <v>39299</v>
       </c>
       <c r="E174" s="2">
-        <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <f>ROUNDDOWN((K173-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s">
         <v>198</v>
@@ -39926,29 +39924,29 @@
       </c>
       <c r="L174" s="2">
         <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="C175" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stewart.Alex</v>
+        <v>Staehr.Craig</v>
       </c>
       <c r="D175" s="1">
-        <v>24576</v>
+        <v>26410</v>
       </c>
       <c r="E175" s="2">
-        <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <f>ROUNDDOWN((K174-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G175" t="s">
         <v>198</v>
@@ -39962,29 +39960,29 @@
       </c>
       <c r="L175" s="2">
         <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C176" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Strangis.Cesidio</v>
+        <v>Stewart.Alex</v>
       </c>
       <c r="D176" s="1">
-        <v>40676</v>
+        <v>24576</v>
       </c>
       <c r="E176" s="2">
-        <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <f>ROUNDDOWN((K175-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G176" t="s">
         <v>198</v>
@@ -39998,26 +39996,26 @@
       </c>
       <c r="L176" s="2">
         <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="B177" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="C177" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Ben</v>
+        <v>Strangis.Cesidio</v>
       </c>
       <c r="D177" s="1">
-        <v>28944</v>
+        <v>40676</v>
       </c>
       <c r="E177" s="2">
-        <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>41</v>
+        <f>ROUNDDOWN((K176-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
         <v>50</v>
@@ -40034,7 +40032,7 @@
       </c>
       <c r="L177" s="2">
         <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -40042,18 +40040,18 @@
         <v>98</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C178" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Stratton.Oliver</v>
+        <v>Stratton.Ben</v>
       </c>
       <c r="D178" s="1">
-        <v>38925</v>
+        <v>28944</v>
       </c>
       <c r="E178" s="2">
-        <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K177-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
         <v>50</v>
@@ -40070,29 +40068,29 @@
       </c>
       <c r="L178" s="2">
         <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="C179" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Swift-Turtur.Samson</v>
+        <v>Stratton.Oliver</v>
       </c>
       <c r="D179" s="1">
-        <v>39808</v>
+        <v>38925</v>
       </c>
       <c r="E179" s="2">
-        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K178-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
         <v>198</v>
@@ -40106,29 +40104,29 @@
       </c>
       <c r="L179" s="2">
         <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
-      </c>
-      <c r="C180" t="str">
+        <v>336</v>
+      </c>
+      <c r="C180" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
+        <v>Swift-Turtur.Samson</v>
       </c>
       <c r="D180" s="1">
-        <v>40524</v>
+        <v>39808</v>
       </c>
       <c r="E180" s="2">
-        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K179-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
         <v>198</v>
@@ -40142,35 +40140,35 @@
       </c>
       <c r="L180" s="2">
         <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="C181" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Tang.Chin Ton Naomi</v>
+        <v>Tajuddin Sh Mohd Ezanie Fikrie.Muhammad</v>
       </c>
       <c r="D181" s="1">
-        <v>37418</v>
+        <v>40524</v>
       </c>
       <c r="E181" s="2">
-        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K180-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="G181" t="s">
         <v>198</v>
       </c>
       <c r="H181" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" si="3"/>
@@ -40178,35 +40176,35 @@
       </c>
       <c r="L181" s="2">
         <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C182" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Blake</v>
+        <v>Tang.Chin Ton Naomi</v>
       </c>
       <c r="D182" s="1">
-        <v>39384</v>
+        <v>37418</v>
       </c>
       <c r="E182" s="2">
-        <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K181-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F182" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="G182" t="s">
         <v>198</v>
       </c>
       <c r="H182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" si="3"/>
@@ -40214,7 +40212,7 @@
       </c>
       <c r="L182" s="2">
         <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -40222,21 +40220,21 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>151</v>
-      </c>
-      <c r="C183" s="9" t="str">
+        <v>173</v>
+      </c>
+      <c r="C183" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Taylor.Henry</v>
+        <v>Taylor.Blake</v>
       </c>
       <c r="D183" s="1">
-        <v>39489</v>
+        <v>39384</v>
       </c>
       <c r="E183" s="2">
-        <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <f>ROUNDDOWN((K182-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G183" t="s">
         <v>198</v>
@@ -40250,29 +40248,29 @@
       </c>
       <c r="L183" s="2">
         <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="B184" t="s">
-        <v>48</v>
-      </c>
-      <c r="C184" t="str">
+        <v>151</v>
+      </c>
+      <c r="C184" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Angus</v>
+        <v>Taylor.Henry</v>
       </c>
       <c r="D184" s="1">
-        <v>37883</v>
+        <v>39489</v>
       </c>
       <c r="E184" s="2">
-        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <f>ROUNDDOWN((K183-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
         <v>198</v>
@@ -40286,7 +40284,7 @@
       </c>
       <c r="L184" s="2">
         <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -40294,21 +40292,21 @@
         <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="C185" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Leon</v>
+        <v>Thomas.Angus</v>
       </c>
       <c r="D185" s="1">
-        <v>20700</v>
+        <v>37883</v>
       </c>
       <c r="E185" s="2">
-        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <f>ROUNDDOWN((K184-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>17</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G185" t="s">
         <v>198</v>
@@ -40322,7 +40320,7 @@
       </c>
       <c r="L185" s="2">
         <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -40330,18 +40328,18 @@
         <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="C186" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Max</v>
+        <v>Thomas.Leon</v>
       </c>
       <c r="D186" s="1">
-        <v>37303</v>
+        <v>20700</v>
       </c>
       <c r="E186" s="2">
-        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <f>ROUNDDOWN((K185-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>64</v>
       </c>
       <c r="F186" t="s">
         <v>11</v>
@@ -40358,7 +40356,7 @@
       </c>
       <c r="L186" s="2">
         <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -40366,21 +40364,21 @@
         <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C187" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Thomas.Rob</v>
+        <v>Thomas.Max</v>
       </c>
       <c r="D187" s="1">
-        <v>23857</v>
+        <v>37303</v>
       </c>
       <c r="E187" s="2">
-        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>55</v>
+        <f>ROUNDDOWN((K186-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>18</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
         <v>198</v>
@@ -40394,26 +40392,26 @@
       </c>
       <c r="L187" s="2">
         <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="C188" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Veaney.Gabriel</v>
+        <v>Thomas.Rob</v>
       </c>
       <c r="D188" s="1">
-        <v>38450</v>
+        <v>23857</v>
       </c>
       <c r="E188" s="2">
-        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <f>ROUNDDOWN((K187-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>55</v>
       </c>
       <c r="F188" t="s">
         <v>49</v>
@@ -40430,29 +40428,29 @@
       </c>
       <c r="L188" s="2">
         <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="C189" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Arky</v>
+        <v>Veaney.Gabriel</v>
       </c>
       <c r="D189" s="1">
-        <v>40326</v>
+        <v>38450</v>
       </c>
       <c r="E189" s="2">
-        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K188-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
         <v>198</v>
@@ -40466,7 +40464,7 @@
       </c>
       <c r="L189" s="2">
         <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -40474,18 +40472,18 @@
         <v>107</v>
       </c>
       <c r="B190" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C190" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Keith</v>
+        <v>Vingelis-Plant.Arky</v>
       </c>
       <c r="D190" s="1">
-        <v>25771</v>
+        <v>40326</v>
       </c>
       <c r="E190" s="2">
-        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
+        <f>ROUNDDOWN((K189-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
@@ -40502,7 +40500,7 @@
       </c>
       <c r="L190" s="2">
         <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -40510,18 +40508,18 @@
         <v>107</v>
       </c>
       <c r="B191" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C191" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Vingelis-Plant.Myka</v>
+        <v>Vingelis-Plant.Keith</v>
       </c>
       <c r="D191" s="1">
-        <v>38849</v>
+        <v>25771</v>
       </c>
       <c r="E191" s="2">
-        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <f>ROUNDDOWN((K190-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>50</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
@@ -40538,26 +40536,26 @@
       </c>
       <c r="L191" s="2">
         <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B192" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C192" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walmsley.Amelia</v>
+        <v>Vingelis-Plant.Myka</v>
       </c>
       <c r="D192" s="1">
-        <v>35641</v>
+        <v>38849</v>
       </c>
       <c r="E192" s="2">
-        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <f>ROUNDDOWN((K191-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
         <v>11</v>
@@ -40566,7 +40564,7 @@
         <v>198</v>
       </c>
       <c r="H192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K192" s="1">
         <f t="shared" si="3"/>
@@ -40574,29 +40572,29 @@
       </c>
       <c r="L192" s="2">
         <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>179</v>
+      </c>
+      <c r="B193" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walmsley.Amelia</v>
+      </c>
+      <c r="D193" s="1">
+        <v>35641</v>
+      </c>
+      <c r="E193" s="2">
+        <f>ROUNDDOWN((K192-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C193" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Walters.Emma</v>
-      </c>
-      <c r="D193" s="1">
-        <v>38830</v>
-      </c>
-      <c r="E193" s="2">
-        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
-      </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
         <v>198</v>
@@ -40610,35 +40608,35 @@
       </c>
       <c r="L193" s="2">
         <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C194" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Walters.Emma</v>
+      </c>
+      <c r="D194" s="1">
+        <v>38830</v>
+      </c>
+      <c r="E194" s="2">
+        <f>ROUNDDOWN((K193-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>131</v>
-      </c>
-      <c r="B194" t="s">
-        <v>60</v>
-      </c>
-      <c r="C194" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wells.Samuel</v>
-      </c>
-      <c r="D194" s="1">
-        <v>29892</v>
-      </c>
-      <c r="E194" s="2">
-        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>39</v>
-      </c>
       <c r="F194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G194" t="s">
         <v>198</v>
       </c>
       <c r="H194" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K194" s="1">
         <f t="shared" si="3"/>
@@ -40646,29 +40644,29 @@
       </c>
       <c r="L194" s="2">
         <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C195" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wheeler.Hugh</v>
+        <v>Wells.Samuel</v>
       </c>
       <c r="D195" s="1">
-        <v>26124</v>
+        <v>29892</v>
       </c>
       <c r="E195" s="2">
-        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K194-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>39</v>
+      </c>
+      <c r="F195" t="s">
         <v>49</v>
-      </c>
-      <c r="F195" t="s">
-        <v>51</v>
       </c>
       <c r="G195" t="s">
         <v>198</v>
@@ -40682,35 +40680,35 @@
       </c>
       <c r="L195" s="2">
         <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B196" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C196" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wilson.Evelyn</v>
+        <v>Wheeler.Hugh</v>
       </c>
       <c r="D196" s="1">
-        <v>39128</v>
+        <v>26124</v>
       </c>
       <c r="E196" s="2">
-        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <f>ROUNDDOWN((K195-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>49</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
         <v>198</v>
       </c>
       <c r="H196" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K196" s="1">
         <f t="shared" si="3"/>
@@ -40718,29 +40716,29 @@
       </c>
       <c r="L196" s="2">
         <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B197" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C197" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Wotherspoon.Alison</v>
+        <v>Wilson.Evelyn</v>
       </c>
       <c r="D197" s="1">
-        <v>22085</v>
+        <v>39128</v>
       </c>
       <c r="E197" s="2">
-        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>60</v>
+        <f>ROUNDDOWN((K196-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
         <v>198</v>
@@ -40754,26 +40752,26 @@
       </c>
       <c r="L197" s="2">
         <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>108</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Wotherspoon.Alison</v>
+      </c>
+      <c r="D198" s="1">
+        <v>22085</v>
+      </c>
+      <c r="E198" s="2">
+        <f>ROUNDDOWN((K197-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Edward</v>
-      </c>
-      <c r="D198" s="1">
-        <v>38742</v>
-      </c>
-      <c r="E198" s="2">
-        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -40782,7 +40780,7 @@
         <v>198</v>
       </c>
       <c r="H198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K198" s="1">
         <f t="shared" si="3"/>
@@ -40790,7 +40788,7 @@
       </c>
       <c r="L198" s="2">
         <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -40798,21 +40796,21 @@
         <v>282</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="C199" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Xiao.Zhaoxuan</v>
+        <v>Xiao.Edward</v>
       </c>
       <c r="D199" s="1">
         <v>38742</v>
       </c>
       <c r="E199" s="2">
-        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K198-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G199" t="s">
         <v>198</v>
@@ -40830,25 +40828,25 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>175</v>
-      </c>
-      <c r="B200" t="s">
-        <v>132</v>
-      </c>
-      <c r="C200" t="str">
+      <c r="A200" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C200" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yang.Luke</v>
+        <v>Xiao.Zhaoxuan</v>
       </c>
       <c r="D200" s="1">
-        <v>40399</v>
+        <v>38742</v>
       </c>
       <c r="E200" s="2">
-        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <f>ROUNDDOWN((K199-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G200" t="s">
         <v>198</v>
@@ -40862,25 +40860,25 @@
       </c>
       <c r="L200" s="2">
         <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="C201" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yeo.Doyoon</v>
+        <v>Yang.Luke</v>
       </c>
       <c r="D201" s="1">
-        <v>40454</v>
+        <v>40399</v>
       </c>
       <c r="E201" s="2">
-        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
+        <f>ROUNDDOWN((K200-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>10</v>
       </c>
       <c r="F201" t="s">
@@ -40902,22 +40900,22 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C202" s="9" t="str">
+      <c r="A202" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Yu.Jerry</v>
+        <v>Yeo.Doyoon</v>
       </c>
       <c r="D202" s="1">
-        <v>37149</v>
+        <v>40454</v>
       </c>
       <c r="E202" s="2">
-        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <f>ROUNDDOWN((K201-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
       </c>
       <c r="F202" t="s">
         <v>11</v>
@@ -40934,26 +40932,26 @@
       </c>
       <c r="L202" s="2">
         <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C203" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Yu.Jerry</v>
+      </c>
+      <c r="D203" s="1">
+        <v>37149</v>
+      </c>
+      <c r="E203" s="2">
+        <f>ROUNDDOWN((K202-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>92</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Zhang.Jiarui</v>
-      </c>
-      <c r="D203" s="1">
-        <v>38124</v>
-      </c>
-      <c r="E203" s="2">
-        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
       </c>
       <c r="F203" t="s">
         <v>11</v>
@@ -40970,26 +40968,26 @@
       </c>
       <c r="L203" s="2">
         <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="C204" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Zhdanovich.Maria</v>
+        <v>Zhang.Jiarui</v>
       </c>
       <c r="D204" s="1">
-        <v>36468</v>
+        <v>38124</v>
       </c>
       <c r="E204" s="2">
-        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>21</v>
+        <f>ROUNDDOWN((K203-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
         <v>11</v>
@@ -40998,7 +40996,7 @@
         <v>198</v>
       </c>
       <c r="H204" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K204" s="1">
         <f t="shared" si="3"/>
@@ -41006,26 +41004,26 @@
       </c>
       <c r="L204" s="2">
         <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" t="s">
+        <v>305</v>
+      </c>
+      <c r="C205" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>Zhdanovich.Maria</v>
+      </c>
+      <c r="D205" s="1">
+        <v>36468</v>
+      </c>
+      <c r="E205" s="2">
+        <f>ROUNDDOWN((K204-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C205" s="9" t="str">
-        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Andriono.Raymond Rafael</v>
-      </c>
-      <c r="D205" s="1">
-        <v>37118</v>
-      </c>
-      <c r="E205" s="2">
-        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
       </c>
       <c r="F205" t="s">
         <v>11</v>
@@ -41034,7 +41032,7 @@
         <v>198</v>
       </c>
       <c r="H205" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K205" s="1">
         <f t="shared" si="3"/>
@@ -41042,29 +41040,29 @@
       </c>
       <c r="L205" s="2">
         <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C206" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Toronjo Urquiza.Luis</v>
+        <v>Andriono.Raymond Rafael</v>
       </c>
       <c r="D206" s="1">
-        <v>32091</v>
+        <v>37118</v>
       </c>
       <c r="E206" s="2">
-        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <f>ROUNDDOWN((K205-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>19</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G206" t="s">
         <v>198</v>
@@ -41078,29 +41076,29 @@
       </c>
       <c r="L206" s="2">
         <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C207" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Kress.Liam</v>
+        <v>Toronjo Urquiza.Luis</v>
       </c>
       <c r="D207" s="1">
-        <v>35661</v>
+        <v>32091</v>
       </c>
       <c r="E207" s="2">
-        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <f>ROUNDDOWN((K206-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
         <v>198</v>
@@ -41114,29 +41112,29 @@
       </c>
       <c r="L207" s="2">
         <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C208" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Idris.Moaz Mohamed Daoud Sheikh</v>
+        <v>Kress.Liam</v>
       </c>
       <c r="D208" s="1">
-        <v>34731</v>
+        <v>35661</v>
       </c>
       <c r="E208" s="2">
-        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <f>ROUNDDOWN((K207-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G208" t="s">
         <v>198</v>
@@ -41150,26 +41148,26 @@
       </c>
       <c r="L208" s="2">
         <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C209" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Nguyen.Lily</v>
+        <v>Idris.Moaz Mohamed Daoud Sheikh</v>
       </c>
       <c r="D209" s="1">
-        <v>34609</v>
+        <v>34731</v>
       </c>
       <c r="E209" s="2">
-        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <f>ROUNDDOWN((K208-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>25</v>
       </c>
       <c r="F209" t="s">
         <v>49</v>
@@ -41178,7 +41176,7 @@
         <v>198</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K209" s="1">
         <f t="shared" si="3"/>
@@ -41186,35 +41184,35 @@
       </c>
       <c r="L209" s="2">
         <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C210" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>Lim.Benjamin</v>
+        <v>Nguyen.Lily</v>
       </c>
       <c r="D210" s="1">
-        <v>36582</v>
+        <v>34609</v>
       </c>
       <c r="E210" s="2">
-        <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <f>ROUNDDOWN((K209-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>26</v>
       </c>
       <c r="F210" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="G210" t="s">
         <v>198</v>
       </c>
       <c r="H210" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K210" s="1">
         <f t="shared" si="3"/>
@@ -41222,24 +41220,52 @@
       </c>
       <c r="L210" s="2">
         <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="C211" s="9" t="str">
         <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
-        <v>.</v>
-      </c>
-      <c r="D211" s="1"/>
+        <v>Lim.Benjamin</v>
+      </c>
+      <c r="D211" s="1">
+        <v>36582</v>
+      </c>
       <c r="E211" s="2">
-        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
-        <v>121</v>
+        <f>ROUNDDOWN((K210-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
+      </c>
+      <c r="F211" t="s">
+        <v>309</v>
+      </c>
+      <c r="G211" t="s">
+        <v>198</v>
+      </c>
+      <c r="H211" t="s">
+        <v>317</v>
       </c>
       <c r="K211" s="1">
         <f t="shared" si="3"/>
         <v>44197</v>
       </c>
       <c r="L211" s="2">
+        <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C212" s="9" t="str">
+        <f>Table13[[#This Row],[LastName]]&amp;"."&amp;Table13[[#This Row],[FirstName]]</f>
+        <v>.</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2">
         <f>ROUNDDOWN((K211-Table13[[#This Row],[DOB]])/365,0)</f>
         <v>121</v>
       </c>
